--- a/StructureDefinition-Product.xlsx
+++ b/StructureDefinition-Product.xlsx
@@ -134,7 +134,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">A product  that have or should have been administered to a subject that includes one or more specific antigen(s) aimed at developing an immune response in an individual to provide protection from a vaccine preventable disease(s).  </t>
+    <t>A product  that have or should have been administered to a subject that includes one or more specific antigen(s) aimed at developing an immune response in an individual to provide protection from a vaccine preventable disease(s).</t>
   </si>
   <si>
     <t>Element</t>
@@ -282,7 +282,9 @@
     <t>Data Carrier Identifier</t>
   </si>
   <si>
-    <t>Set of identifiers associated to this instance of the product. It could be a global (e.g. GTIN) or a national identifier. The identifiers may refer to different package levels : secondary packaging, packaged product, immediate container.</t>
+    <t>Set of identifiers associated to this instance of the product. It could be a global (e.g. GTIN) or a national identifier. 
+The identifiers may refer to different package levels such as primary packaging or secondary packaging.
+The identifier of the lowest packaging should be captured.</t>
   </si>
   <si>
     <t>Product.identifier.lotNumber</t>
@@ -1007,7 +1009,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -1082,7 +1084,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -1507,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1582,7 +1584,7 @@
         <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1907,7 +1909,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1982,7 +1984,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -2607,7 +2609,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2682,7 +2684,7 @@
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -2707,7 +2709,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -2782,7 +2784,7 @@
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-Product.xlsx
+++ b/StructureDefinition-Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="121">
   <si>
     <t>Path</t>
   </si>
@@ -217,10 +217,10 @@
 </t>
   </si>
   <si>
-    <t>Product code set</t>
-  </si>
-  <si>
-    <t>Codes that describe this product at different levels (e.g. package, medicinal product, pharmaceutical product, product cluster)</t>
+    <t>Set of product codes</t>
+  </si>
+  <si>
+    <t>Set of codes that are used to identify this product.</t>
   </si>
   <si>
     <t>Product.codeSet.productCode</t>
@@ -233,7 +233,9 @@
     <t>Product code</t>
   </si>
   <si>
-    <t>Set of codes identifying a Virtual or an Authorized Packaged Medicinal Product (PC), Medicinal Product (MP) , Pharmaceutical Product (PhP) or other product codes.</t>
+    <t>Code identifying this product.
+The code may represent different kinds of products: it might be an Authorized Packaged Medicinal Product, a Virtual Medicinal Product , a Pharmaceutical Product (PhP) , a cluster of products and so on.
+It might be a jurisdictional (e.g. sub-national, national), cross-jurisdictional (e.g. regional) or a global product code.</t>
   </si>
   <si>
     <t>Product.codeSet.PCID</t>
@@ -242,7 +244,8 @@
     <t>IDMP PCID</t>
   </si>
   <si>
-    <t>Code identifying the IDMP Packaged Medicinal Product</t>
+    <t>Code identifying the IDMP Packaged Medicinal Product.
+A Packaged Medicinal Product is a 'Medicinal Product in a container being part of a package, representing the entirety that has been packaged for sale or supply' [source ISO 11615:2017]</t>
   </si>
   <si>
     <t>Product.codeSet.MPID</t>
@@ -251,7 +254,8 @@
     <t>IDMP MPID</t>
   </si>
   <si>
-    <t>Code identifying the IDMP Medicinal Product</t>
+    <t>Code identifying the IDMP Medicinal Product.
+A Medicinal Product is a 'pharmaceutical product or combination of pharmaceutical products that may be administered to human beings (or animals) for treating or preventing disease, with the aim/purpose of making a medical diagnosis or to restore, correct or modify physiological functions'  [source ISO 11615:2017]</t>
   </si>
   <si>
     <t>Product.codeSet.PhPID</t>
@@ -260,10 +264,11 @@
     <t>IDMP PhP</t>
   </si>
   <si>
-    <t>Code identifying the IDMP Pharmaceutical Product</t>
-  </si>
-  <si>
-    <t>Product.identifier</t>
+    <t>Code identifying the IDMP Pharmaceutical Product.
+A Pharmaceutical Product is a 'qualitative and quantitative composition of a Medicinal Product in the dose form approved for administration' [source ISO 11616:2017]</t>
+  </si>
+  <si>
+    <t>Product.packageIdentifiers</t>
   </si>
   <si>
     <t>Set of identifiers</t>
@@ -272,22 +277,23 @@
     <t>Identifiers typically related to the supply chain management, but often used also for other purposes as the fight against falsified and counterfeit medicines; adverse event reporting, and so on.</t>
   </si>
   <si>
-    <t>Product.identifier.dataCarrierIdentifier</t>
+    <t>Product.packageIdentifiers.dataCarrierIdentifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Data Carrier Identifier</t>
-  </si>
-  <si>
-    <t>Set of identifiers associated to this instance of the product. It could be a global (e.g. GTIN) or a national identifier. 
+    <t>Data Carrier Identifier (e.g. GTIN)</t>
+  </si>
+  <si>
+    <t>Set of identifiers associated to this instance of the product.
+It could be a global (e.g. GTIN) or a national identifier. 
 The identifiers may refer to different package levels such as primary packaging or secondary packaging.
 The identifier of the lowest packaging should be captured.</t>
   </si>
   <si>
-    <t>Product.identifier.lotNumber</t>
+    <t>Product.packageIdentifiers.lotNumber</t>
   </si>
   <si>
     <t>Lot/Batch Number</t>
@@ -314,10 +320,10 @@
     <t>Product.composition.ingredient</t>
   </si>
   <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
-    <t>Information about the igredients composing this product</t>
+    <t>Ingredient (e.g. antigen)</t>
+  </si>
+  <si>
+    <t>Information about the ingredients composing this product</t>
   </si>
   <si>
     <t>Product.composition.ingredient.substanceName</t>
@@ -335,7 +341,11 @@
     <t>Substance code</t>
   </si>
   <si>
-    <t>Code identifying this substance / specified substance. When active it is the substance that triggers an immune response to a specific disease with a role of an antigen. Derivable from vaccine product.</t>
+    <t xml:space="preserve">Code identifying this substance / specified substance. 
+A susbtance is 'any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical' [source ISO 11616:2017]
+When active it is the substance that triggers an immune response to a specific disease with a role of an antigen. 
+Derivable from vaccine product.
+</t>
   </si>
   <si>
     <t>Product.composition.ingredient.ingredientRole</t>
@@ -363,7 +373,7 @@
     <t>Product.composition.description</t>
   </si>
   <si>
-    <t>Textual Composition</t>
+    <t>Composition (textual tescription)</t>
   </si>
   <si>
     <t>Textual description of the product composition</t>
@@ -382,13 +392,20 @@
     <t>the organisation that holds the authorisation for marketing a Medicinal Product in a region</t>
   </si>
   <si>
-    <t>Product.manufacturer</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>Organisation that holds the authorisation for the manufacturing process</t>
+    <t>Product.expiryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date, assigned to the Medicinal Immunizing Product by the manufacturer, after which the product should not be administered as product integrity cannot be guaranteed.  
+The Medicinal Immunizing Product, along with the Medicinal Immunizing Product Lot Number and Medicinal Immunizing Product Expiry Date, uniquely identifies an immunizing product. 
+A key variable in vaccine recalls because each lot number may have more than one expiry date.  
+Expiry date may be changed (reduced) due to a cold chain break. </t>
   </si>
 </sst>
 </file>
@@ -2721,13 +2738,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>

--- a/StructureDefinition-Product.xlsx
+++ b/StructureDefinition-Product.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$23</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="124">
   <si>
     <t>Path</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>the organisation that holds the authorisation for marketing a Medicinal Product in a region</t>
+  </si>
+  <si>
+    <t>Product.manufacturer</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>Organisation that holds the authorisation for the manufacturing process</t>
   </si>
   <si>
     <t>Product.expiryDate</t>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2738,13 +2747,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2813,8 +2822,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ22">
+  <autoFilter ref="A1:AJ23">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2824,7 +2933,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
